--- a/financial_report_584672043.xlsx
+++ b/financial_report_584672043.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Тип</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Источник</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Категория</t>
         </is>
@@ -453,17 +463,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>продаж</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Расход</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>'</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>'</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>аренду</t>
         </is>
       </c>
     </row>
